--- a/datasets/all_data_buurten_2014.xlsx
+++ b/datasets/all_data_buurten_2014.xlsx
@@ -45,55 +45,6 @@
           </rPr>
           <t xml:space="preserve">
 Overgenomen van 2016</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robbin Berger:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Overgenomen van 2016</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robbin Berger:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Overgenomen van 2016
-</t>
         </r>
       </text>
     </comment>
@@ -869,7 +820,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1049,12 +1000,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1217,12 +1162,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1581,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P52" workbookViewId="0">
-      <selection activeCell="AA75" sqref="AA75"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,12 +1751,6 @@
       <c r="Z2">
         <v>50</v>
       </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2">
-        <v>3</v>
-      </c>
       <c r="AC2" s="2">
         <v>0.63377955287224597</v>
       </c>
@@ -1912,12 +1852,6 @@
       <c r="Z3">
         <v>200</v>
       </c>
-      <c r="AA3">
-        <v>4</v>
-      </c>
-      <c r="AB3">
-        <v>1</v>
-      </c>
       <c r="AC3" s="2">
         <v>0.44362013084807911</v>
       </c>
@@ -2019,12 +1953,6 @@
       <c r="Z4">
         <v>500</v>
       </c>
-      <c r="AA4">
-        <v>10</v>
-      </c>
-      <c r="AB4">
-        <v>2</v>
-      </c>
       <c r="AC4" s="2">
         <v>0.35308513712289041</v>
       </c>
@@ -2126,12 +2054,6 @@
       <c r="Z5">
         <v>200</v>
       </c>
-      <c r="AA5">
-        <v>4</v>
-      </c>
-      <c r="AB5">
-        <v>3</v>
-      </c>
       <c r="AC5" s="2">
         <v>0.74310684571512098</v>
       </c>
@@ -2233,12 +2155,6 @@
       <c r="Z6">
         <v>500</v>
       </c>
-      <c r="AA6">
-        <v>10</v>
-      </c>
-      <c r="AB6">
-        <v>2</v>
-      </c>
       <c r="AC6" s="2">
         <v>0.87067461852964323</v>
       </c>
@@ -2340,12 +2256,6 @@
       <c r="Z7">
         <v>500</v>
       </c>
-      <c r="AA7">
-        <v>10</v>
-      </c>
-      <c r="AB7">
-        <v>10</v>
-      </c>
       <c r="AC7" s="2">
         <v>0.74682999076786538</v>
       </c>
@@ -2447,12 +2357,6 @@
       <c r="Z8">
         <v>500</v>
       </c>
-      <c r="AA8">
-        <v>10</v>
-      </c>
-      <c r="AB8">
-        <v>3</v>
-      </c>
       <c r="AC8" s="2">
         <v>0.74682999076786538</v>
       </c>
@@ -2554,12 +2458,6 @@
       <c r="Z9">
         <v>500</v>
       </c>
-      <c r="AA9">
-        <v>10</v>
-      </c>
-      <c r="AB9">
-        <v>2</v>
-      </c>
       <c r="AC9" s="2">
         <v>0.61167826226800992</v>
       </c>
@@ -2661,12 +2559,6 @@
       <c r="Z10">
         <v>80</v>
       </c>
-      <c r="AA10">
-        <v>2</v>
-      </c>
-      <c r="AB10">
-        <v>1</v>
-      </c>
       <c r="AC10" s="2">
         <v>0.50359259887876384</v>
       </c>
@@ -2768,12 +2660,6 @@
       <c r="Z11">
         <v>100</v>
       </c>
-      <c r="AA11">
-        <v>2</v>
-      </c>
-      <c r="AB11">
-        <v>1</v>
-      </c>
       <c r="AC11" s="2">
         <v>0.47451461169127007</v>
       </c>
@@ -2875,12 +2761,6 @@
       <c r="Z12">
         <v>50</v>
       </c>
-      <c r="AA12">
-        <v>1</v>
-      </c>
-      <c r="AB12">
-        <v>1</v>
-      </c>
       <c r="AC12" s="2">
         <v>0.63972765158357536</v>
       </c>
@@ -2982,12 +2862,6 @@
       <c r="Z13">
         <v>50</v>
       </c>
-      <c r="AA13">
-        <v>1</v>
-      </c>
-      <c r="AB13">
-        <v>2</v>
-      </c>
       <c r="AC13" s="2">
         <v>0.3586760713662317</v>
       </c>
@@ -3089,12 +2963,6 @@
       <c r="Z14">
         <v>500</v>
       </c>
-      <c r="AA14">
-        <v>10</v>
-      </c>
-      <c r="AB14">
-        <v>2</v>
-      </c>
       <c r="AC14" s="2">
         <v>0.34394773574561482</v>
       </c>
@@ -3196,12 +3064,6 @@
       <c r="Z15">
         <v>50</v>
       </c>
-      <c r="AA15">
-        <v>1</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
       <c r="AC15" s="2">
         <v>0.70227039674229996</v>
       </c>
@@ -3303,12 +3165,6 @@
       <c r="Z16">
         <v>50</v>
       </c>
-      <c r="AA16">
-        <v>1</v>
-      </c>
-      <c r="AB16">
-        <v>2</v>
-      </c>
       <c r="AC16" s="2">
         <v>0.78292853923101347</v>
       </c>
@@ -3410,12 +3266,6 @@
       <c r="Z17">
         <v>50</v>
       </c>
-      <c r="AA17">
-        <v>1</v>
-      </c>
-      <c r="AB17">
-        <v>1</v>
-      </c>
       <c r="AC17" s="2">
         <v>0.71464967216589892</v>
       </c>
@@ -3517,12 +3367,6 @@
       <c r="Z18">
         <v>500</v>
       </c>
-      <c r="AA18">
-        <v>10</v>
-      </c>
-      <c r="AB18">
-        <v>5</v>
-      </c>
       <c r="AC18" s="2">
         <v>0.85592885586239742</v>
       </c>
@@ -3624,12 +3468,6 @@
       <c r="Z19">
         <v>500</v>
       </c>
-      <c r="AA19">
-        <v>10</v>
-      </c>
-      <c r="AB19">
-        <v>8</v>
-      </c>
       <c r="AC19" s="2">
         <v>0.85592885586239742</v>
       </c>
@@ -3731,12 +3569,6 @@
       <c r="Z20">
         <v>300</v>
       </c>
-      <c r="AA20">
-        <v>6</v>
-      </c>
-      <c r="AB20">
-        <v>6</v>
-      </c>
       <c r="AC20" s="2">
         <v>0.85592885586239742</v>
       </c>
@@ -3838,12 +3670,6 @@
       <c r="Z21">
         <v>100</v>
       </c>
-      <c r="AA21">
-        <v>2</v>
-      </c>
-      <c r="AB21">
-        <v>3</v>
-      </c>
       <c r="AC21" s="2">
         <v>0.35206038493693215</v>
       </c>
@@ -3945,12 +3771,6 @@
       <c r="Z22">
         <v>300</v>
       </c>
-      <c r="AA22">
-        <v>6</v>
-      </c>
-      <c r="AB22">
-        <v>2</v>
-      </c>
       <c r="AC22" s="2">
         <v>0.45506847605502532</v>
       </c>
@@ -4052,12 +3872,6 @@
       <c r="Z23">
         <v>500</v>
       </c>
-      <c r="AA23">
-        <v>10</v>
-      </c>
-      <c r="AB23">
-        <v>2</v>
-      </c>
       <c r="AC23" s="2">
         <v>0.45258925226852847</v>
       </c>
@@ -4159,12 +3973,6 @@
       <c r="Z24">
         <v>200</v>
       </c>
-      <c r="AA24">
-        <v>4</v>
-      </c>
-      <c r="AB24">
-        <v>1</v>
-      </c>
       <c r="AC24" s="2">
         <v>0.34854309849070342</v>
       </c>
@@ -4266,12 +4074,6 @@
       <c r="Z25">
         <v>300</v>
       </c>
-      <c r="AA25">
-        <v>6</v>
-      </c>
-      <c r="AB25">
-        <v>2</v>
-      </c>
       <c r="AC25" s="2">
         <v>0.42199390184623253</v>
       </c>
@@ -4373,12 +4175,6 @@
       <c r="Z26">
         <v>400</v>
       </c>
-      <c r="AA26">
-        <v>8</v>
-      </c>
-      <c r="AB26">
-        <v>2</v>
-      </c>
       <c r="AC26" s="2">
         <v>0.30538929381472596</v>
       </c>
@@ -4480,12 +4276,6 @@
       <c r="Z27">
         <v>500</v>
       </c>
-      <c r="AA27">
-        <v>10</v>
-      </c>
-      <c r="AB27">
-        <v>1</v>
-      </c>
       <c r="AC27" s="2">
         <v>0.41303712209257015</v>
       </c>
@@ -4587,12 +4377,6 @@
       <c r="Z28">
         <v>80</v>
       </c>
-      <c r="AA28">
-        <v>2</v>
-      </c>
-      <c r="AB28">
-        <v>2</v>
-      </c>
       <c r="AC28" s="2">
         <v>0.42199390184623253</v>
       </c>
@@ -4694,12 +4478,6 @@
       <c r="Z29">
         <v>50</v>
       </c>
-      <c r="AA29">
-        <v>1</v>
-      </c>
-      <c r="AB29">
-        <v>3</v>
-      </c>
       <c r="AC29" s="2">
         <v>0.71183183886557688</v>
       </c>
@@ -4801,12 +4579,6 @@
       <c r="Z30">
         <v>500</v>
       </c>
-      <c r="AA30">
-        <v>10</v>
-      </c>
-      <c r="AB30">
-        <v>4</v>
-      </c>
       <c r="AC30" s="2">
         <v>0.20601583776859755</v>
       </c>
@@ -4908,12 +4680,6 @@
       <c r="Z31">
         <v>100</v>
       </c>
-      <c r="AA31">
-        <v>2</v>
-      </c>
-      <c r="AB31">
-        <v>7</v>
-      </c>
       <c r="AC31" s="2">
         <v>0.67502791582679822</v>
       </c>
@@ -5015,12 +4781,6 @@
       <c r="Z32">
         <v>50</v>
       </c>
-      <c r="AA32">
-        <v>1</v>
-      </c>
-      <c r="AB32">
-        <v>6</v>
-      </c>
       <c r="AC32" s="2">
         <v>0.83024153609716023</v>
       </c>
@@ -5122,12 +4882,6 @@
       <c r="Z33">
         <v>50</v>
       </c>
-      <c r="AA33">
-        <v>1</v>
-      </c>
-      <c r="AB33">
-        <v>9</v>
-      </c>
       <c r="AC33" s="2">
         <v>0.75777117186690801</v>
       </c>
@@ -5229,12 +4983,6 @@
       <c r="Z34">
         <v>80</v>
       </c>
-      <c r="AA34">
-        <v>2</v>
-      </c>
-      <c r="AB34">
-        <v>1</v>
-      </c>
       <c r="AC34" s="2">
         <v>0.57357410275211895</v>
       </c>
@@ -5336,12 +5084,6 @@
       <c r="Z35">
         <v>300</v>
       </c>
-      <c r="AA35">
-        <v>6</v>
-      </c>
-      <c r="AB35">
-        <v>1</v>
-      </c>
       <c r="AC35" s="2">
         <v>0.88712208774017542</v>
       </c>
@@ -5443,12 +5185,6 @@
       <c r="Z36">
         <v>100</v>
       </c>
-      <c r="AA36">
-        <v>2</v>
-      </c>
-      <c r="AB36">
-        <v>1</v>
-      </c>
       <c r="AC36" s="2">
         <v>0.57378579625705084</v>
       </c>
@@ -5550,12 +5286,6 @@
       <c r="Z37">
         <v>500</v>
       </c>
-      <c r="AA37">
-        <v>10</v>
-      </c>
-      <c r="AB37">
-        <v>2</v>
-      </c>
       <c r="AC37" s="2">
         <v>0.52246304398255983</v>
       </c>
@@ -5657,12 +5387,6 @@
       <c r="Z38">
         <v>50</v>
       </c>
-      <c r="AA38">
-        <v>1</v>
-      </c>
-      <c r="AB38">
-        <v>10</v>
-      </c>
       <c r="AC38" s="2">
         <v>0.52747874972315223</v>
       </c>
@@ -5764,12 +5488,6 @@
       <c r="Z39">
         <v>200</v>
       </c>
-      <c r="AA39">
-        <v>4</v>
-      </c>
-      <c r="AB39">
-        <v>10</v>
-      </c>
       <c r="AC39" s="2">
         <v>0.52747874972315223</v>
       </c>
@@ -5871,12 +5589,6 @@
       <c r="Z40">
         <v>300</v>
       </c>
-      <c r="AA40">
-        <v>6</v>
-      </c>
-      <c r="AB40">
-        <v>3</v>
-      </c>
       <c r="AC40" s="2">
         <v>0.81081036211520952</v>
       </c>
@@ -5978,12 +5690,6 @@
       <c r="Z41">
         <v>50</v>
       </c>
-      <c r="AA41">
-        <v>1</v>
-      </c>
-      <c r="AB41">
-        <v>3</v>
-      </c>
       <c r="AC41" s="2">
         <v>0.67631495314842038</v>
       </c>
@@ -6085,12 +5791,6 @@
       <c r="Z42">
         <v>400</v>
       </c>
-      <c r="AA42">
-        <v>8</v>
-      </c>
-      <c r="AB42">
-        <v>2</v>
-      </c>
       <c r="AC42" s="2">
         <v>0.5730822705787354</v>
       </c>
@@ -6192,12 +5892,6 @@
       <c r="Z43">
         <v>80</v>
       </c>
-      <c r="AA43">
-        <v>2</v>
-      </c>
-      <c r="AB43">
-        <v>1</v>
-      </c>
       <c r="AC43" s="2">
         <v>0.50316477960148065</v>
       </c>
@@ -6299,12 +5993,6 @@
       <c r="Z44">
         <v>40</v>
       </c>
-      <c r="AA44">
-        <v>1</v>
-      </c>
-      <c r="AB44">
-        <v>1</v>
-      </c>
       <c r="AC44" s="2">
         <v>0.28239215920274452</v>
       </c>
@@ -6406,12 +6094,6 @@
       <c r="Z45">
         <v>500</v>
       </c>
-      <c r="AA45">
-        <v>10</v>
-      </c>
-      <c r="AB45">
-        <v>1</v>
-      </c>
       <c r="AC45" s="2">
         <v>0.44261313064285029</v>
       </c>
@@ -6513,12 +6195,6 @@
       <c r="Z46">
         <v>500</v>
       </c>
-      <c r="AA46">
-        <v>10</v>
-      </c>
-      <c r="AB46">
-        <v>1</v>
-      </c>
       <c r="AC46" s="2">
         <v>0.58676140611905903</v>
       </c>
@@ -6620,12 +6296,6 @@
       <c r="Z47">
         <v>500</v>
       </c>
-      <c r="AA47">
-        <v>10</v>
-      </c>
-      <c r="AB47">
-        <v>1</v>
-      </c>
       <c r="AC47" s="2">
         <v>0.28338608059328368</v>
       </c>
@@ -6727,12 +6397,6 @@
       <c r="Z48">
         <v>100</v>
       </c>
-      <c r="AA48">
-        <v>2</v>
-      </c>
-      <c r="AB48">
-        <v>2</v>
-      </c>
       <c r="AC48" s="2">
         <v>0.44649757853614574</v>
       </c>
@@ -6834,12 +6498,6 @@
       <c r="Z49">
         <v>500</v>
       </c>
-      <c r="AA49">
-        <v>10</v>
-      </c>
-      <c r="AB49">
-        <v>2</v>
-      </c>
       <c r="AC49" s="2">
         <v>0.6125995952073543</v>
       </c>
@@ -6941,12 +6599,6 @@
       <c r="Z50">
         <v>50</v>
       </c>
-      <c r="AA50">
-        <v>1</v>
-      </c>
-      <c r="AB50">
-        <v>2</v>
-      </c>
       <c r="AC50" s="2">
         <v>0.57191771085107823</v>
       </c>
@@ -7048,12 +6700,6 @@
       <c r="Z51">
         <v>400</v>
       </c>
-      <c r="AA51">
-        <v>8</v>
-      </c>
-      <c r="AB51">
-        <v>1</v>
-      </c>
       <c r="AC51" s="2">
         <v>0.61520442164697309</v>
       </c>
@@ -7155,12 +6801,6 @@
       <c r="Z52">
         <v>0</v>
       </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
-      <c r="AB52">
-        <v>1</v>
-      </c>
       <c r="AC52" s="2">
         <v>0.56650567216035475</v>
       </c>
@@ -7262,12 +6902,6 @@
       <c r="Z53">
         <v>500</v>
       </c>
-      <c r="AA53">
-        <v>10</v>
-      </c>
-      <c r="AB53">
-        <v>1</v>
-      </c>
       <c r="AC53" s="2">
         <v>0.54821851878553174</v>
       </c>
@@ -7369,12 +7003,6 @@
       <c r="Z54">
         <v>500</v>
       </c>
-      <c r="AA54">
-        <v>10</v>
-      </c>
-      <c r="AB54">
-        <v>2</v>
-      </c>
       <c r="AC54" s="2">
         <v>0.63567745920865959</v>
       </c>
@@ -7476,12 +7104,6 @@
       <c r="Z55">
         <v>50</v>
       </c>
-      <c r="AA55">
-        <v>1</v>
-      </c>
-      <c r="AB55">
-        <v>7</v>
-      </c>
       <c r="AC55" s="2">
         <v>0.72914333859841007</v>
       </c>
@@ -7583,12 +7205,6 @@
       <c r="Z56">
         <v>200</v>
       </c>
-      <c r="AA56">
-        <v>4</v>
-      </c>
-      <c r="AB56">
-        <v>10</v>
-      </c>
       <c r="AC56" s="2">
         <v>0.56785284607892506</v>
       </c>
@@ -7690,12 +7306,6 @@
       <c r="Z57">
         <v>50</v>
       </c>
-      <c r="AA57">
-        <v>1</v>
-      </c>
-      <c r="AB57">
-        <v>3</v>
-      </c>
       <c r="AC57" s="2">
         <v>0.73427288916837652</v>
       </c>
@@ -7797,12 +7407,6 @@
       <c r="Z58">
         <v>50</v>
       </c>
-      <c r="AA58">
-        <v>1</v>
-      </c>
-      <c r="AB58">
-        <v>2</v>
-      </c>
       <c r="AC58" s="2">
         <v>0.68062770769139558</v>
       </c>
@@ -7904,12 +7508,6 @@
       <c r="Z59">
         <v>200</v>
       </c>
-      <c r="AA59">
-        <v>4</v>
-      </c>
-      <c r="AB59">
-        <v>2</v>
-      </c>
       <c r="AC59" s="2">
         <v>0.65983316154058291</v>
       </c>
@@ -8011,12 +7609,6 @@
       <c r="Z60">
         <v>400</v>
       </c>
-      <c r="AA60">
-        <v>8</v>
-      </c>
-      <c r="AB60">
-        <v>2</v>
-      </c>
       <c r="AC60" s="2">
         <v>0.52664068069572745</v>
       </c>
@@ -8118,12 +7710,6 @@
       <c r="Z61">
         <v>50</v>
       </c>
-      <c r="AA61">
-        <v>1</v>
-      </c>
-      <c r="AB61">
-        <v>2</v>
-      </c>
       <c r="AC61" s="2">
         <v>0.70720760743453359</v>
       </c>
@@ -8225,12 +7811,6 @@
       <c r="Z62">
         <v>500</v>
       </c>
-      <c r="AA62">
-        <v>10</v>
-      </c>
-      <c r="AB62">
-        <v>7</v>
-      </c>
       <c r="AC62" s="2">
         <v>0.75340950910672044</v>
       </c>
@@ -8332,31 +7912,25 @@
       <c r="Z63" s="3">
         <v>40</v>
       </c>
-      <c r="AA63" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB63" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC63" s="2">
+      <c r="AC63" s="5">
         <v>0.55116393247402262</v>
       </c>
-      <c r="AD63" s="2">
+      <c r="AD63" s="5">
         <v>5.8595925009629186E-2</v>
       </c>
-      <c r="AE63" s="2">
+      <c r="AE63" s="5">
         <v>0.66049307371914234</v>
       </c>
-      <c r="AF63" s="2">
+      <c r="AF63" s="5">
         <v>0.47347645813790412</v>
       </c>
-      <c r="AG63" s="2">
+      <c r="AG63" s="5">
         <v>0.74402644443882915</v>
       </c>
-      <c r="AH63" s="2">
+      <c r="AH63" s="5">
         <v>0.46472711762889124</v>
       </c>
-      <c r="AI63" s="2">
+      <c r="AI63" s="5">
         <v>0.92540608609894281</v>
       </c>
     </row>
@@ -8439,12 +8013,6 @@
       <c r="Z64">
         <v>40</v>
       </c>
-      <c r="AA64">
-        <v>1</v>
-      </c>
-      <c r="AB64">
-        <v>0</v>
-      </c>
       <c r="AC64" s="2">
         <v>0.40600674598461023</v>
       </c>
@@ -8546,12 +8114,6 @@
       <c r="Z65">
         <v>50</v>
       </c>
-      <c r="AA65">
-        <v>1</v>
-      </c>
-      <c r="AB65">
-        <v>1</v>
-      </c>
       <c r="AC65" s="2">
         <v>0.70374057786588307</v>
       </c>
@@ -8653,12 +8215,6 @@
       <c r="Z66">
         <v>300</v>
       </c>
-      <c r="AA66">
-        <v>6</v>
-      </c>
-      <c r="AB66">
-        <v>1</v>
-      </c>
       <c r="AC66" s="2">
         <v>0.37053943101964681</v>
       </c>
@@ -8760,12 +8316,6 @@
       <c r="Z67">
         <v>500</v>
       </c>
-      <c r="AA67">
-        <v>10</v>
-      </c>
-      <c r="AB67">
-        <v>2</v>
-      </c>
       <c r="AC67" s="2">
         <v>0.9330084300291579</v>
       </c>
@@ -8867,12 +8417,6 @@
       <c r="Z68">
         <v>100</v>
       </c>
-      <c r="AA68">
-        <v>2</v>
-      </c>
-      <c r="AB68">
-        <v>0</v>
-      </c>
       <c r="AC68" s="2">
         <v>0.79452506875405193</v>
       </c>
@@ -8974,12 +8518,6 @@
       <c r="Z69">
         <v>200</v>
       </c>
-      <c r="AA69">
-        <v>4</v>
-      </c>
-      <c r="AB69">
-        <v>1</v>
-      </c>
       <c r="AC69" s="2">
         <v>0.69287973906694689</v>
       </c>
@@ -9081,12 +8619,6 @@
       <c r="Z70">
         <v>400</v>
       </c>
-      <c r="AA70">
-        <v>8</v>
-      </c>
-      <c r="AB70">
-        <v>2</v>
-      </c>
       <c r="AC70" s="2">
         <v>0.77022667166252501</v>
       </c>
@@ -9188,12 +8720,6 @@
       <c r="Z71">
         <v>500</v>
       </c>
-      <c r="AA71">
-        <v>10</v>
-      </c>
-      <c r="AB71">
-        <v>2</v>
-      </c>
       <c r="AC71" s="2">
         <v>0.79818097835430246</v>
       </c>
@@ -9295,12 +8821,6 @@
       <c r="Z72">
         <v>50</v>
       </c>
-      <c r="AA72">
-        <v>1</v>
-      </c>
-      <c r="AB72">
-        <v>2</v>
-      </c>
       <c r="AC72" s="2">
         <v>0.72919988346544906</v>
       </c>
@@ -9402,12 +8922,6 @@
       <c r="Z73">
         <v>400</v>
       </c>
-      <c r="AA73">
-        <v>8</v>
-      </c>
-      <c r="AB73">
-        <v>2</v>
-      </c>
       <c r="AC73" s="2">
         <v>0.7221456272364547</v>
       </c>
@@ -9509,12 +9023,6 @@
       <c r="Z74">
         <v>40</v>
       </c>
-      <c r="AA74">
-        <v>1</v>
-      </c>
-      <c r="AB74">
-        <v>4</v>
-      </c>
       <c r="AC74" s="2">
         <v>0.76888232392865885</v>
       </c>
@@ -9616,12 +9124,6 @@
       <c r="Z75">
         <v>500</v>
       </c>
-      <c r="AA75">
-        <v>10</v>
-      </c>
-      <c r="AB75">
-        <v>2</v>
-      </c>
       <c r="AC75" s="2">
         <v>0.70820484317091859</v>
       </c>
@@ -9723,12 +9225,6 @@
       <c r="Z76">
         <v>100</v>
       </c>
-      <c r="AA76">
-        <v>2</v>
-      </c>
-      <c r="AB76">
-        <v>4</v>
-      </c>
       <c r="AC76" s="2">
         <v>0.70820484317091859</v>
       </c>
@@ -9829,12 +9325,6 @@
       </c>
       <c r="Z77">
         <v>200</v>
-      </c>
-      <c r="AA77">
-        <v>4</v>
-      </c>
-      <c r="AB77">
-        <v>2</v>
       </c>
       <c r="AC77" s="2">
         <v>0.60101834385323394</v>
